--- a/miniWarehouseData.xlsx
+++ b/miniWarehouseData.xlsx
@@ -82,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -283,7 +284,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G10"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -363,7 +364,7 @@
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -389,7 +390,7 @@
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +416,7 @@
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -441,7 +442,7 @@
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -467,7 +468,7 @@
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -493,7 +494,7 @@
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,7 +520,7 @@
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -545,7 +546,7 @@
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/miniWarehouseData.xlsx
+++ b/miniWarehouseData.xlsx
@@ -284,7 +284,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G10"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -319,9 +319,8 @@
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>FYW</v>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>3</v>
@@ -345,9 +344,8 @@
       <c r="A3" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>FZS</v>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
       </c>
       <c r="C3" s="5" t="n">
         <v>7</v>
@@ -371,9 +369,8 @@
       <c r="A4" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>NWY</v>
+      <c r="B4" s="4" t="n">
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>6</v>
@@ -397,9 +394,8 @@
       <c r="A5" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>DCZ</v>
+      <c r="B5" s="4" t="n">
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="n">
         <v>3</v>
@@ -423,9 +419,8 @@
       <c r="A6" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>RSH</v>
+      <c r="B6" s="4" t="n">
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>4</v>
@@ -449,9 +444,8 @@
       <c r="A7" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>LGM</v>
+      <c r="B7" s="4" t="n">
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="n">
         <v>7</v>
@@ -475,9 +469,8 @@
       <c r="A8" s="4" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>ODS</v>
+      <c r="B8" s="4" t="n">
+        <v>7</v>
       </c>
       <c r="C8" s="5" t="n">
         <v>5</v>
@@ -501,9 +494,8 @@
       <c r="A9" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>HEZ</v>
+      <c r="B9" s="4" t="n">
+        <v>8</v>
       </c>
       <c r="C9" s="5" t="n">
         <v>6</v>
@@ -527,9 +519,8 @@
       <c r="A10" s="4" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="str">
-        <f aca="false">CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))&amp;CHAR(RANDBETWEEN(65,90))</f>
-        <v>WXU</v>
+      <c r="B10" s="4" t="n">
+        <v>9</v>
       </c>
       <c r="C10" s="5" t="n">
         <v>5</v>

--- a/miniWarehouseData.xlsx
+++ b/miniWarehouseData.xlsx
@@ -284,7 +284,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2:B10"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -336,7 +336,6 @@
         <v>8</v>
       </c>
       <c r="G2" s="4" t="n">
-        <f aca="false">RANDBETWEEN(0,4)</f>
         <v>0</v>
       </c>
     </row>
@@ -358,7 +357,7 @@
       </c>
       <c r="F3" s="6" t="n">
         <f aca="false">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G3" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
@@ -387,7 +386,7 @@
       </c>
       <c r="G4" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,7 +411,7 @@
       </c>
       <c r="G5" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,7 +436,7 @@
       </c>
       <c r="G6" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -462,7 +461,7 @@
       </c>
       <c r="G7" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -487,7 +486,7 @@
       </c>
       <c r="G8" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -512,7 +511,7 @@
       </c>
       <c r="G9" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -537,7 +536,7 @@
       </c>
       <c r="G10" s="4" t="n">
         <f aca="false">RANDBETWEEN(0,4)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
